--- a/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
+++ b/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\resources\templates\Plasmodium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E3FAEA-F949-4E10-8AAE-641623E128E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF7F86-DAE9-480A-9988-00C9B66DB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="232">
   <si>
     <t>ng</t>
   </si>
@@ -764,12 +764,6 @@
       </rPr>
       <t>O if required</t>
     </r>
-  </si>
-  <si>
-    <t>Missing values evaluate to empty cells in metadata tabs</t>
-  </si>
-  <si>
-    <t>Sheets protected to prevent user overwriting</t>
   </si>
   <si>
     <t>Instructions</t>
@@ -1024,6 +1018,9 @@
   </si>
   <si>
     <t>Please contact the NOMADS team if any changes need to be made to the template.</t>
+  </si>
+  <si>
+    <t>Ability to filter sWGA table</t>
   </si>
 </sst>
 </file>
@@ -1566,17 +1563,86 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,83 +1672,6 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1697,9 +1686,14 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1713,9 +1707,50 @@
   </cellStyles>
   <dxfs count="20">
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1737,13 +1772,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1946,40 +1974,6 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2055,20 +2049,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:J98" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="11">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="13">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="12"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="9">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2123,7 +2117,7 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="7">
       <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2453,176 +2447,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="69" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="69"/>
-      <c r="K2" s="61" t="s">
+      <c r="H2" s="72"/>
+      <c r="K2" s="83" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="61"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="59"/>
+      <c r="L3" s="81"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="60" t="s">
+      <c r="K4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="82"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="73"/>
-      <c r="C5" s="76" t="str">
+      <c r="B5" s="74"/>
+      <c r="C5" s="77" t="str">
         <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H5,2,FALSE),C4))</f>
         <v/>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
       <c r="G5" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="78" t="s">
+      <c r="K5" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="78"/>
+      <c r="L5" s="79"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="73" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="84" t="str">
+      <c r="B6" s="74"/>
+      <c r="C6" s="60" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="88"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="G7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="83"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
       <c r="G8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="65" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="87" t="str">
+      <c r="B9" s="65"/>
+      <c r="C9" s="63" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
       <c r="G9" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90" t="str">
+      <c r="B10" s="65"/>
+      <c r="C10" s="66" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
       <c r="G11" s="20" t="s">
         <v>151</v>
       </c>
@@ -2632,10 +2626,10 @@
       <c r="B12" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
       <c r="G12" t="s">
         <v>145</v>
       </c>
@@ -2645,28 +2639,28 @@
       <c r="B13" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="88"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="88"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7"/>
@@ -2685,7 +2679,7 @@
       <c r="C16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="95">
+      <c r="D16" s="55">
         <v>0.1</v>
       </c>
       <c r="E16" s="7"/>
@@ -2705,164 +2699,164 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="86" t="s">
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86" t="str">
+      <c r="E18" s="62"/>
+      <c r="F18" s="62" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="86"/>
-      <c r="J18" s="64" t="s">
+      <c r="G18" s="62"/>
+      <c r="J18" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="64"/>
+      <c r="K18" s="86"/>
       <c r="L18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="79" t="s">
+      <c r="A19" s="68" t="s">
         <v>207</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="67">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
       <c r="E19" s="67"/>
-      <c r="F19" s="82" t="str">
+      <c r="F19" s="70" t="str">
         <f t="shared" ref="F19:F22" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D19*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G19" s="82"/>
-      <c r="J19" s="65">
+      <c r="G19" s="70"/>
+      <c r="J19" s="87">
         <v>35</v>
       </c>
-      <c r="K19" s="65"/>
+      <c r="K19" s="87"/>
       <c r="L19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
       <c r="D20" s="67">
         <v>0.25</v>
       </c>
       <c r="E20" s="67"/>
-      <c r="F20" s="82" t="str">
+      <c r="F20" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="82"/>
-      <c r="J20" s="65">
+      <c r="G20" s="70"/>
+      <c r="J20" s="87">
         <v>34</v>
       </c>
-      <c r="K20" s="65"/>
+      <c r="K20" s="87"/>
       <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="80" t="s">
+      <c r="A21" s="56" t="s">
         <v>208</v>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="67">
         <v>1.25</v>
       </c>
       <c r="E21" s="67"/>
-      <c r="F21" s="82" t="str">
+      <c r="F21" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="82"/>
-      <c r="J21" s="62">
+      <c r="G21" s="70"/>
+      <c r="J21" s="84">
         <v>33</v>
       </c>
-      <c r="K21" s="62"/>
+      <c r="K21" s="84"/>
       <c r="L21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="67">
         <v>5</v>
       </c>
       <c r="E22" s="67"/>
-      <c r="F22" s="82" t="str">
+      <c r="F22" s="70" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="82"/>
-      <c r="J22" s="63">
+      <c r="G22" s="70"/>
+      <c r="J22" s="85">
         <v>32</v>
       </c>
-      <c r="K22" s="63"/>
+      <c r="K22" s="85"/>
       <c r="L22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="79" t="s">
+      <c r="A23" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="79"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="67">
         <v>1</v>
       </c>
       <c r="E23" s="67"/>
-      <c r="F23" s="82" t="str">
+      <c r="F23" s="70" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D23*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G23" s="82"/>
-      <c r="J23" s="62">
+      <c r="G23" s="70"/>
+      <c r="J23" s="84">
         <v>31</v>
       </c>
-      <c r="K23" s="62"/>
+      <c r="K23" s="84"/>
       <c r="L23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="80" t="s">
+      <c r="A24" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="67">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D19:E23)</f>
         <v>-17.5</v>
       </c>
       <c r="E24" s="67"/>
-      <c r="F24" s="82" t="str">
+      <c r="F24" s="70" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G24" s="82"/>
-      <c r="J24" s="62">
+      <c r="G24" s="70"/>
+      <c r="J24" s="84">
         <v>30</v>
       </c>
-      <c r="K24" s="62"/>
+      <c r="K24" s="84"/>
       <c r="L24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2872,10 +2866,10 @@
         <f>CONCATENATE("Add ",SUM(D19:D24)," µl of MM to each well")</f>
         <v>Add -10 µl of MM to each well</v>
       </c>
-      <c r="J25" s="62">
+      <c r="J25" s="84">
         <v>65</v>
       </c>
-      <c r="K25" s="62"/>
+      <c r="K25" s="84"/>
       <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
@@ -2885,10 +2879,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="7"/>
       <c r="G26" s="10"/>
-      <c r="J26" s="62">
+      <c r="J26" s="84">
         <v>10</v>
       </c>
-      <c r="K26" s="62"/>
+      <c r="K26" s="84"/>
       <c r="L26" s="13" t="s">
         <v>12</v>
       </c>
@@ -2903,11 +2897,11 @@
       <c r="D27" s="7"/>
       <c r="F27" s="13"/>
       <c r="G27" s="10"/>
-      <c r="K27" s="58" t="s">
+      <c r="K27" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="58"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
@@ -2928,11 +2922,11 @@
       <c r="D29" s="7"/>
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
-      <c r="K29" s="58" t="s">
+      <c r="K29" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="14"/>
@@ -3423,6 +3417,50 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="60">
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="C13:K14"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="K5:L6"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A11:B11"/>
@@ -3439,64 +3477,20 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:H10"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="K5:L6"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="C13:K14"/>
-    <mergeCell ref="D24:E24"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C13">
-    <cfRule type="expression" dxfId="1" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>COUNTIF(D16,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3544,7 +3538,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="J3" sqref="J3:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3561,18 +3555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="92"/>
-      <c r="E1" s="93" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="54" t="s">
@@ -3607,10 +3601,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="55">
+      <c r="A3" s="93">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="94" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="30"/>
@@ -3629,10 +3623,10 @@
       <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="55">
+      <c r="A4" s="93">
         <v>2</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="94" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="30"/>
@@ -3651,10 +3645,10 @@
       <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="55">
+      <c r="A5" s="93">
         <v>3</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="94" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="30"/>
@@ -3673,10 +3667,10 @@
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="55">
+      <c r="A6" s="93">
         <v>4</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="94" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="30"/>
@@ -3695,10 +3689,10 @@
       <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="55">
+      <c r="A7" s="93">
         <v>5</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="94" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="30"/>
@@ -3717,10 +3711,10 @@
       <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="93">
         <v>6</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="94" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="30"/>
@@ -3739,10 +3733,10 @@
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="55">
+      <c r="A9" s="93">
         <v>7</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="94" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="30"/>
@@ -3761,10 +3755,10 @@
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="93">
         <v>8</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="94" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="30"/>
@@ -3783,10 +3777,10 @@
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="55">
+      <c r="A11" s="93">
         <v>9</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="94" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="30"/>
@@ -3805,10 +3799,10 @@
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="93">
         <v>10</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="94" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="30"/>
@@ -3827,10 +3821,10 @@
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="55">
+      <c r="A13" s="93">
         <v>11</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="94" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30"/>
@@ -3849,10 +3843,10 @@
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="93">
         <v>12</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="94" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="30"/>
@@ -3871,10 +3865,10 @@
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="55">
+      <c r="A15" s="93">
         <v>13</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="94" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="30"/>
@@ -3893,10 +3887,10 @@
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="93">
         <v>14</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="94" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="30"/>
@@ -3915,10 +3909,10 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="55">
+      <c r="A17" s="93">
         <v>15</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="94" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="30"/>
@@ -3937,10 +3931,10 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="93">
         <v>16</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="94" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="30"/>
@@ -3959,10 +3953,10 @@
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="55">
+      <c r="A19" s="93">
         <v>17</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="94" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="30"/>
@@ -3981,10 +3975,10 @@
       <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="93">
         <v>18</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="94" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="30"/>
@@ -4003,10 +3997,10 @@
       <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="55">
+      <c r="A21" s="93">
         <v>19</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="94" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="30"/>
@@ -4025,10 +4019,10 @@
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="93">
         <v>20</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="93" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="30"/>
@@ -4047,10 +4041,10 @@
       <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="55">
+      <c r="A23" s="93">
         <v>21</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="93" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="30"/>
@@ -4069,10 +4063,10 @@
       <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="93">
         <v>22</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="93" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="30"/>
@@ -4091,10 +4085,10 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="55">
+      <c r="A25" s="93">
         <v>23</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="93" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="30"/>
@@ -4113,10 +4107,10 @@
       <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="93">
         <v>24</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="93" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="30"/>
@@ -4135,10 +4129,10 @@
       <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="55">
+      <c r="A27" s="93">
         <v>25</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="93" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="30"/>
@@ -4157,10 +4151,10 @@
       <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="93">
         <v>26</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="93" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="30"/>
@@ -4179,10 +4173,10 @@
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="55">
+      <c r="A29" s="93">
         <v>27</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="93" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="30"/>
@@ -4201,10 +4195,10 @@
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="93">
         <v>28</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="93" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="30"/>
@@ -4223,10 +4217,10 @@
       <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="55">
+      <c r="A31" s="93">
         <v>29</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="93" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="30"/>
@@ -4245,10 +4239,10 @@
       <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="93">
         <v>30</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="93" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="30"/>
@@ -4267,10 +4261,10 @@
       <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="55">
+      <c r="A33" s="93">
         <v>31</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="93" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="30"/>
@@ -4289,10 +4283,10 @@
       <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="93">
         <v>32</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="30"/>
@@ -4311,10 +4305,10 @@
       <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="55">
+      <c r="A35" s="93">
         <v>33</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="93" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="30"/>
@@ -4333,10 +4327,10 @@
       <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="93">
         <v>34</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="93" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="30"/>
@@ -4355,10 +4349,10 @@
       <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="55">
+      <c r="A37" s="93">
         <v>35</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="93" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="30"/>
@@ -4377,10 +4371,10 @@
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="55">
+      <c r="A38" s="93">
         <v>36</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="93" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="30"/>
@@ -4399,10 +4393,10 @@
       <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A39" s="55">
+      <c r="A39" s="93">
         <v>37</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="93" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="30"/>
@@ -4421,10 +4415,10 @@
       <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="55">
+      <c r="A40" s="93">
         <v>38</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="93" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="30"/>
@@ -4443,10 +4437,10 @@
       <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="55">
+      <c r="A41" s="93">
         <v>39</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="93" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="30"/>
@@ -4465,10 +4459,10 @@
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="93">
         <v>40</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="93" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="30"/>
@@ -4487,10 +4481,10 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="55">
+      <c r="A43" s="93">
         <v>41</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="93" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="30"/>
@@ -4509,10 +4503,10 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="93">
         <v>42</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="93" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="30"/>
@@ -4531,10 +4525,10 @@
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="55">
+      <c r="A45" s="93">
         <v>43</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="93" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="30"/>
@@ -4553,10 +4547,10 @@
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="93">
         <v>44</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="93" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="30"/>
@@ -4575,10 +4569,10 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="55">
+      <c r="A47" s="93">
         <v>45</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="93" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="30"/>
@@ -4597,10 +4591,10 @@
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="93">
         <v>46</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="93" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="30"/>
@@ -4619,10 +4613,10 @@
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A49" s="55">
+      <c r="A49" s="93">
         <v>47</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="93" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="30"/>
@@ -4641,10 +4635,10 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="93">
         <v>48</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="93" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="30"/>
@@ -4663,10 +4657,10 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="55">
+      <c r="A51" s="93">
         <v>49</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="93" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="30"/>
@@ -4685,10 +4679,10 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="93">
         <v>50</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="93" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="30"/>
@@ -4707,10 +4701,10 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="55">
+      <c r="A53" s="93">
         <v>51</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="93" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="30"/>
@@ -4729,10 +4723,10 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="55">
+      <c r="A54" s="93">
         <v>52</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="93" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="30"/>
@@ -4751,10 +4745,10 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="55">
+      <c r="A55" s="93">
         <v>53</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="93" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="30"/>
@@ -4773,10 +4767,10 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="55">
+      <c r="A56" s="93">
         <v>54</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="93" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="30"/>
@@ -4795,10 +4789,10 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="55">
+      <c r="A57" s="93">
         <v>55</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="93" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="30"/>
@@ -4817,10 +4811,10 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="55">
+      <c r="A58" s="93">
         <v>56</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="93" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="30"/>
@@ -4839,10 +4833,10 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="55">
+      <c r="A59" s="93">
         <v>57</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="93" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="30"/>
@@ -4861,10 +4855,10 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="55">
+      <c r="A60" s="93">
         <v>58</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="93" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="30"/>
@@ -4883,10 +4877,10 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="55">
+      <c r="A61" s="93">
         <v>59</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="93" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="30"/>
@@ -4905,10 +4899,10 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="55">
+      <c r="A62" s="93">
         <v>60</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="93" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="30"/>
@@ -4927,10 +4921,10 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A63" s="55">
+      <c r="A63" s="93">
         <v>61</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="93" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="30"/>
@@ -4949,10 +4943,10 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="55">
+      <c r="A64" s="93">
         <v>62</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="93" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="30"/>
@@ -4971,10 +4965,10 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="55">
+      <c r="A65" s="93">
         <v>63</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="93" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="30"/>
@@ -4993,10 +4987,10 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="55">
+      <c r="A66" s="93">
         <v>64</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="93" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="30"/>
@@ -5015,10 +5009,10 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="55">
+      <c r="A67" s="93">
         <v>65</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="93" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="30"/>
@@ -5037,10 +5031,10 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" s="55">
+      <c r="A68" s="93">
         <v>66</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="93" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="30"/>
@@ -5059,10 +5053,10 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A69" s="55">
+      <c r="A69" s="93">
         <v>67</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="93" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="30"/>
@@ -5081,10 +5075,10 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A70" s="55">
+      <c r="A70" s="93">
         <v>68</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="93" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="30"/>
@@ -5103,10 +5097,10 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A71" s="55">
+      <c r="A71" s="93">
         <v>69</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="93" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="30"/>
@@ -5125,10 +5119,10 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A72" s="55">
+      <c r="A72" s="93">
         <v>70</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="93" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="30"/>
@@ -5147,10 +5141,10 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="55">
+      <c r="A73" s="93">
         <v>71</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="93" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="30"/>
@@ -5169,10 +5163,10 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A74" s="55">
+      <c r="A74" s="93">
         <v>72</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="93" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="30"/>
@@ -5191,10 +5185,10 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A75" s="55">
+      <c r="A75" s="93">
         <v>73</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="93" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="30"/>
@@ -5213,10 +5207,10 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A76" s="55">
+      <c r="A76" s="93">
         <v>74</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="93" t="s">
         <v>112</v>
       </c>
       <c r="C76" s="30"/>
@@ -5235,10 +5229,10 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A77" s="55">
+      <c r="A77" s="93">
         <v>75</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="93" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="30"/>
@@ -5257,10 +5251,10 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A78" s="55">
+      <c r="A78" s="93">
         <v>76</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="93" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="30"/>
@@ -5279,10 +5273,10 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="55">
+      <c r="A79" s="93">
         <v>77</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="93" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="30"/>
@@ -5301,10 +5295,10 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A80" s="55">
+      <c r="A80" s="93">
         <v>78</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="93" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="30"/>
@@ -5323,10 +5317,10 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="55">
+      <c r="A81" s="93">
         <v>79</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="93" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="30"/>
@@ -5345,10 +5339,10 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="55">
+      <c r="A82" s="93">
         <v>80</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="93" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="30"/>
@@ -5367,10 +5361,10 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="55">
+      <c r="A83" s="93">
         <v>81</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="93" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="30"/>
@@ -5389,10 +5383,10 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A84" s="55">
+      <c r="A84" s="93">
         <v>82</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="93" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="30"/>
@@ -5411,10 +5405,10 @@
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A85" s="55">
+      <c r="A85" s="93">
         <v>83</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="93" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="30"/>
@@ -5433,10 +5427,10 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A86" s="55">
+      <c r="A86" s="93">
         <v>84</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="93" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="30"/>
@@ -5455,10 +5449,10 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A87" s="55">
+      <c r="A87" s="93">
         <v>85</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="93" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="30"/>
@@ -5477,10 +5471,10 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" s="55">
+      <c r="A88" s="93">
         <v>86</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="93" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="30"/>
@@ -5499,10 +5493,10 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A89" s="55">
+      <c r="A89" s="93">
         <v>87</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="93" t="s">
         <v>124</v>
       </c>
       <c r="C89" s="30"/>
@@ -5521,10 +5515,10 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="55">
+      <c r="A90" s="93">
         <v>88</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="93" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="30"/>
@@ -5543,10 +5537,10 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="55">
+      <c r="A91" s="93">
         <v>89</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="93" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="30"/>
@@ -5565,10 +5559,10 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="55">
+      <c r="A92" s="93">
         <v>90</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="93" t="s">
         <v>126</v>
       </c>
       <c r="C92" s="30"/>
@@ -5587,10 +5581,10 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="55">
+      <c r="A93" s="93">
         <v>91</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="93" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="30"/>
@@ -5609,10 +5603,10 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="55">
+      <c r="A94" s="93">
         <v>92</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="93" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="30"/>
@@ -5631,10 +5625,10 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A95" s="55">
+      <c r="A95" s="93">
         <v>93</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="93" t="s">
         <v>129</v>
       </c>
       <c r="C95" s="30"/>
@@ -5653,10 +5647,10 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="55">
+      <c r="A96" s="93">
         <v>94</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="93" t="s">
         <v>130</v>
       </c>
       <c r="C96" s="30"/>
@@ -5675,10 +5669,10 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="55">
+      <c r="A97" s="93">
         <v>95</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="93" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="30"/>
@@ -5697,10 +5691,10 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="57">
+      <c r="A98" s="95">
         <v>96</v>
       </c>
-      <c r="B98" s="57" t="s">
+      <c r="B98" s="95" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="30"/>
@@ -5871,19 +5865,22 @@
       <c r="J111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Do+ZvaSNIKYpxOppd2j2DHLAMrtLqUdnylRzuZEahvA8514tVL9zsACPj/gXyAMeqTfv8cOOjBCYEBnK8GjYuQ==" saltValue="cO5c+EFbobPewavczjI6rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <protectedRanges>
+    <protectedRange sqref="A2:J98" name="FilterTbl"/>
+  </protectedRanges>
   <mergeCells count="2">
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D98 F3:H98 J3:J98">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="2" priority="5">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5911,7 +5908,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -6043,7 +6040,7 @@
         <v>172</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>202</v>
@@ -6064,13 +6061,10 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>213</v>
-      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -6090,7 +6084,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
@@ -6107,12 +6101,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="52" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="48" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6120,12 +6114,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6133,7 +6127,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6141,7 +6135,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6149,7 +6143,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6157,7 +6151,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6165,48 +6159,48 @@
         <v>167</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="48" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -6214,17 +6208,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6302,7 +6296,7 @@
       </c>
       <c r="E2">
         <f>IF(LEN(exp_version)=0,"",exp_version)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2" t="str">
         <f>IF(LEN(exp_rxns)=0,"",exp_rxns)</f>
@@ -8873,7 +8867,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
+++ b/templates/Plasmodium/NOMADS_sWGA_Plasmo_Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\gitrepos\warehouse\templates\Plasmodium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06CF7F86-DAE9-480A-9988-00C9B66DB6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD644A4-F247-40D0-9110-9665EFD84732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="34080" windowHeight="22200" activeTab="3" xr2:uid="{202E2ACC-7D07-5944-B6D6-A1D8A2363375}"/>
   </bookViews>
@@ -686,24 +686,6 @@
   </si>
   <si>
     <t>Project C</t>
-  </si>
-  <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>JS</t>
-  </si>
-  <si>
-    <t>Fiona Waiting</t>
-  </si>
-  <si>
-    <t>FW</t>
-  </si>
-  <si>
-    <t>Terence Broad</t>
-  </si>
-  <si>
-    <t>TB</t>
   </si>
   <si>
     <t>User-defined</t>
@@ -1021,6 +1003,24 @@
   </si>
   <si>
     <t>Ability to filter sWGA table</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>Person C</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>PC</t>
   </si>
 </sst>
 </file>
@@ -1567,6 +1567,15 @@
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1686,15 +1695,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma" xfId="5" builtinId="3"/>
@@ -1706,40 +1706,6 @@
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
   </cellStyles>
   <dxfs count="20">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1974,6 +1940,40 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
@@ -2049,20 +2049,20 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}" name="tbl_sWGA" displayName="tbl_sWGA" ref="A2:J98" totalsRowShown="0" headerRowDxfId="19" headerRowBorderDxfId="18" tableBorderDxfId="17" totalsRowBorderDxfId="16">
   <autoFilter ref="A2:J98" xr:uid="{4C103716-E393-43AA-872A-215BD28108E4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{AFEE5217-53A1-450F-B6A8-E87D945E0FAE}" name="#" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{0CF8190A-662E-422B-8BDD-34F3D27B34F2}" name="Well" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{CE61E1E1-E9B3-4D58-9DFE-1AB6DDFCD05A}" name="Sample ID" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{9795EF0E-2DE1-455A-A3FF-0804F7CBA8C3}" name="Extraction ID" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{AE7E794D-3E11-4B03-8051-B54164DF087E}" name="sWGA Identifier" dataDxfId="11">
       <calculatedColumnFormula>IF(SUM(LEN(tbl_sWGA[[#This Row],[Sample ID]])+LEN(tbl_sWGA[[#This Row],[Extraction ID]]))=0,"",CONCATENATE(exp_id,"_",tbl_sWGA[[#This Row],[Well]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="9">
+    <tableColumn id="8" xr3:uid="{17E17A49-9A1B-4B36-98B0-66368F2A095E}" name="sWGA template (ul)" dataDxfId="10"/>
+    <tableColumn id="12" xr3:uid="{6392E74F-2A5C-4E61-A4E5-54FD59E2FF90}" name="sWGA qubit [DNA] (ng / ul)" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{182C6360-B664-4CDB-83F5-523D173848EB}" name="sWGA Dilution Factor" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B3E809FC-AA96-4329-8BC3-6D3188F7C694}" name="sWGA product [DNA] (ng / ul)" dataDxfId="7">
       <calculatedColumnFormula>IF(OR(ISBLANK(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]),ISBLANK(tbl_sWGA[[#This Row],[sWGA Dilution Factor]])),"",SUM(tbl_sWGA[[#This Row],[sWGA qubit '[DNA'] (ng / ul)]]*tbl_sWGA[[#This Row],[sWGA Dilution Factor]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{1D653C53-7C54-49A7-9A0B-EB787729497D}" name="Proceed with PCR" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2117,7 +2117,7 @@
     <tableColumn id="3" xr3:uid="{E11C4165-C164-4B88-9BF1-7FC2458E8999}" name="extraction_id">
       <calculatedColumnFormula>IF(LEN(sWGA!D3)=0,"",sWGA!D3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{D54B2CD4-28CD-4925-BA77-787E61BD2826}" name="expt_id" dataDxfId="5">
       <calculatedColumnFormula>IF(LEN(sWGA!E3)=0,"",exp_id)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F5CC8E00-1DA6-4870-97ED-B9F5BA34367D}" name="swga_identifier">
@@ -2438,7 +2438,7 @@
   <dimension ref="A1:M41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2447,176 +2447,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="K2" s="83" t="s">
+      <c r="H2" s="75"/>
+      <c r="K2" s="86" t="s">
         <v>138</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="86"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" t="s">
         <v>145</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="K3" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="81"/>
+      <c r="L3" s="84"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
       <c r="G4" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="82"/>
+      <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="77" t="str">
-        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H5,2,FALSE),C4))</f>
-        <v/>
-      </c>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="80" t="str">
+        <f>IF(OR(ISBLANK(C3),ISBLANK(C4)),"",CONCATENATE("SW",VLOOKUP(C3,reference!G3:H7,2,FALSE),C4))</f>
+        <v/>
+      </c>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="79" t="s">
+      <c r="K5" s="82" t="s">
         <v>184</v>
       </c>
-      <c r="L5" s="79"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="60" t="str">
+      <c r="B6" s="77"/>
+      <c r="C6" s="63" t="str">
         <f>IF(OR(ISBLANK(C2),ISBLANK(C3),LEN(C5)=0),"",CONCATENATE(C2,"_sWGA_",C5))</f>
         <v/>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
       <c r="G6" s="23"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
       <c r="G7" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="67" t="s">
         <v>186</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
       <c r="G8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="63" t="str">
+      <c r="B9" s="68"/>
+      <c r="C9" s="66" t="str">
         <f>IF(OR(LEN(C7)=0, LEN(C8)=0),"",CONCATENATE(C7,"_Batch",C8))</f>
         <v/>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
       <c r="G9" s="20" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="66" t="str">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="str">
         <f>IF(OR(LEN(C6)=0,LEN(exp_summary)=0),"",CONCATENATE(C6,"_",exp_summary,".xlsx"))</f>
         <v/>
       </c>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="60" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
       <c r="G11" s="20" t="s">
         <v>151</v>
       </c>
@@ -2626,10 +2626,10 @@
       <c r="B12" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" t="s">
         <v>145</v>
       </c>
@@ -2639,28 +2639,28 @@
       <c r="B13" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
-      <c r="K13" s="88"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="29"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+      <c r="K14" s="91"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="7"/>
@@ -2699,164 +2699,164 @@
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:13" ht="16.5" thickBot="1">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62" t="str">
+      <c r="E18" s="65"/>
+      <c r="F18" s="65" t="str">
         <f>CONCATENATE("MM x",exp_rxns," (µl)")</f>
         <v>MM x (µl)</v>
       </c>
-      <c r="G18" s="62"/>
-      <c r="J18" s="86" t="s">
+      <c r="G18" s="65"/>
+      <c r="J18" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="86"/>
+      <c r="K18" s="89"/>
       <c r="L18" s="12" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="68" t="s">
-        <v>207</v>
-      </c>
-      <c r="B19" s="68"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="67">
+      <c r="A19" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="70">
         <f>swga_rxnvol/10</f>
         <v>0</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="70" t="str">
+      <c r="E19" s="70"/>
+      <c r="F19" s="73" t="str">
         <f t="shared" ref="F19:F22" si="0">IF(ISBLANK(swga_rxnvol),"",SUM(D19*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G19" s="70"/>
-      <c r="J19" s="87">
+      <c r="G19" s="73"/>
+      <c r="J19" s="90">
         <v>35</v>
       </c>
-      <c r="K19" s="87"/>
+      <c r="K19" s="90"/>
       <c r="L19" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="67">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="70">
         <v>0.25</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="70" t="str">
+      <c r="E20" s="70"/>
+      <c r="F20" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G20" s="70"/>
-      <c r="J20" s="87">
+      <c r="G20" s="73"/>
+      <c r="J20" s="90">
         <v>34</v>
       </c>
-      <c r="K20" s="87"/>
+      <c r="K20" s="90"/>
       <c r="L20" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="67">
+      <c r="A21" s="59" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="70">
         <v>1.25</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="70" t="str">
+      <c r="E21" s="70"/>
+      <c r="F21" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G21" s="70"/>
-      <c r="J21" s="84">
+      <c r="G21" s="73"/>
+      <c r="J21" s="87">
         <v>33</v>
       </c>
-      <c r="K21" s="84"/>
+      <c r="K21" s="87"/>
       <c r="L21" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="67">
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="70">
         <v>5</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="70" t="str">
+      <c r="E22" s="70"/>
+      <c r="F22" s="73" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G22" s="70"/>
-      <c r="J22" s="85">
+      <c r="G22" s="73"/>
+      <c r="J22" s="88">
         <v>32</v>
       </c>
-      <c r="K22" s="85"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="A23" s="68" t="s">
+      <c r="A23" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="67">
+      <c r="B23" s="71"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="70">
         <v>1</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="70" t="str">
+      <c r="E23" s="70"/>
+      <c r="F23" s="73" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D23*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G23" s="70"/>
-      <c r="J23" s="84">
+      <c r="G23" s="73"/>
+      <c r="J23" s="87">
         <v>31</v>
       </c>
-      <c r="K23" s="84"/>
+      <c r="K23" s="87"/>
       <c r="L23" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="67">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="70">
         <f>SUM(swga_rxnvol-swga_template_maxvol)-SUM(D19:E23)</f>
         <v>-17.5</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="70" t="str">
+      <c r="E24" s="70"/>
+      <c r="F24" s="73" t="str">
         <f>IF(ISBLANK(swga_rxnvol),"",SUM(D24*exp_rxns*(1+$D$16)))</f>
         <v/>
       </c>
-      <c r="G24" s="70"/>
-      <c r="J24" s="84">
+      <c r="G24" s="73"/>
+      <c r="J24" s="87">
         <v>30</v>
       </c>
-      <c r="K24" s="84"/>
+      <c r="K24" s="87"/>
       <c r="L24" s="6" t="s">
         <v>14</v>
       </c>
@@ -2866,10 +2866,10 @@
         <f>CONCATENATE("Add ",SUM(D19:D24)," µl of MM to each well")</f>
         <v>Add -10 µl of MM to each well</v>
       </c>
-      <c r="J25" s="84">
+      <c r="J25" s="87">
         <v>65</v>
       </c>
-      <c r="K25" s="84"/>
+      <c r="K25" s="87"/>
       <c r="L25" s="6" t="s">
         <v>17</v>
       </c>
@@ -2879,10 +2879,10 @@
       <c r="C26" s="9"/>
       <c r="D26" s="7"/>
       <c r="G26" s="10"/>
-      <c r="J26" s="84">
+      <c r="J26" s="87">
         <v>10</v>
       </c>
-      <c r="K26" s="84"/>
+      <c r="K26" s="87"/>
       <c r="L26" s="13" t="s">
         <v>12</v>
       </c>
@@ -2897,11 +2897,11 @@
       <c r="D27" s="7"/>
       <c r="F27" s="13"/>
       <c r="G27" s="10"/>
-      <c r="K27" s="80" t="s">
+      <c r="K27" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="L27" s="83"/>
+      <c r="M27" s="83"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="14" t="s">
@@ -2915,18 +2915,18 @@
     </row>
     <row r="29" spans="1:13" ht="18.75">
       <c r="A29" s="14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="9"/>
       <c r="D29" s="7"/>
       <c r="F29" s="13"/>
       <c r="G29" s="10"/>
-      <c r="K29" s="80" t="s">
+      <c r="K29" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="14"/>
@@ -3480,17 +3480,17 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C2:C4 C11:C13">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="4" priority="15">
       <formula>COUNTIF(C2,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:C8">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>COUNTIF(C7,"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>COUNTIF(D16,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3519,7 +3519,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E7C7338-D4B5-4229-8F49-1913883BAA1F}">
           <x14:formula1>
-            <xm:f>reference!$G$3:$G$5</xm:f>
+            <xm:f>reference!$G$3:$G$7</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
         </x14:dataValidation>
@@ -3538,7 +3538,7 @@
   <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3555,18 +3555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="48.75" customHeight="1">
       <c r="A2" s="54" t="s">
@@ -3601,10 +3601,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="93">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="57" t="s">
         <v>37</v>
       </c>
       <c r="C3" s="30"/>
@@ -3623,10 +3623,10 @@
       <c r="J3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A4" s="93">
+      <c r="A4" s="56">
         <v>2</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="57" t="s">
         <v>49</v>
       </c>
       <c r="C4" s="30"/>
@@ -3645,10 +3645,10 @@
       <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A5" s="93">
+      <c r="A5" s="56">
         <v>3</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="57" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="30"/>
@@ -3667,10 +3667,10 @@
       <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A6" s="93">
+      <c r="A6" s="56">
         <v>4</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="30"/>
@@ -3689,10 +3689,10 @@
       <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A7" s="93">
+      <c r="A7" s="56">
         <v>5</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="57" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="30"/>
@@ -3711,10 +3711,10 @@
       <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A8" s="93">
+      <c r="A8" s="56">
         <v>6</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="57" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="30"/>
@@ -3733,10 +3733,10 @@
       <c r="J8" s="42"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A9" s="93">
+      <c r="A9" s="56">
         <v>7</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="57" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="30"/>
@@ -3755,10 +3755,10 @@
       <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A10" s="93">
+      <c r="A10" s="56">
         <v>8</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="57" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="30"/>
@@ -3777,10 +3777,10 @@
       <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A11" s="93">
+      <c r="A11" s="56">
         <v>9</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="57" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="30"/>
@@ -3799,10 +3799,10 @@
       <c r="J11" s="42"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A12" s="93">
+      <c r="A12" s="56">
         <v>10</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="30"/>
@@ -3821,10 +3821,10 @@
       <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A13" s="93">
+      <c r="A13" s="56">
         <v>11</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="57" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="30"/>
@@ -3843,10 +3843,10 @@
       <c r="J13" s="42"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A14" s="93">
+      <c r="A14" s="56">
         <v>12</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="57" t="s">
         <v>61</v>
       </c>
       <c r="C14" s="30"/>
@@ -3865,10 +3865,10 @@
       <c r="J14" s="42"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A15" s="93">
+      <c r="A15" s="56">
         <v>13</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="57" t="s">
         <v>66</v>
       </c>
       <c r="C15" s="30"/>
@@ -3887,10 +3887,10 @@
       <c r="J15" s="42"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A16" s="93">
+      <c r="A16" s="56">
         <v>14</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="57" t="s">
         <v>67</v>
       </c>
       <c r="C16" s="30"/>
@@ -3909,10 +3909,10 @@
       <c r="J16" s="42"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A17" s="93">
+      <c r="A17" s="56">
         <v>15</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="57" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="30"/>
@@ -3931,10 +3931,10 @@
       <c r="J17" s="42"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="93">
+      <c r="A18" s="56">
         <v>16</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="57" t="s">
         <v>69</v>
       </c>
       <c r="C18" s="30"/>
@@ -3953,10 +3953,10 @@
       <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A19" s="93">
+      <c r="A19" s="56">
         <v>17</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="30"/>
@@ -3975,10 +3975,10 @@
       <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A20" s="93">
+      <c r="A20" s="56">
         <v>18</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="57" t="s">
         <v>51</v>
       </c>
       <c r="C20" s="30"/>
@@ -3997,10 +3997,10 @@
       <c r="J20" s="42"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A21" s="93">
+      <c r="A21" s="56">
         <v>19</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="57" t="s">
         <v>70</v>
       </c>
       <c r="C21" s="30"/>
@@ -4019,10 +4019,10 @@
       <c r="J21" s="42"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A22" s="93">
+      <c r="A22" s="56">
         <v>20</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="56" t="s">
         <v>71</v>
       </c>
       <c r="C22" s="30"/>
@@ -4041,10 +4041,10 @@
       <c r="J22" s="42"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A23" s="93">
+      <c r="A23" s="56">
         <v>21</v>
       </c>
-      <c r="B23" s="93" t="s">
+      <c r="B23" s="56" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="30"/>
@@ -4063,10 +4063,10 @@
       <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A24" s="93">
+      <c r="A24" s="56">
         <v>22</v>
       </c>
-      <c r="B24" s="93" t="s">
+      <c r="B24" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C24" s="30"/>
@@ -4085,10 +4085,10 @@
       <c r="J24" s="42"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="93">
+      <c r="A25" s="56">
         <v>23</v>
       </c>
-      <c r="B25" s="93" t="s">
+      <c r="B25" s="56" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="30"/>
@@ -4107,10 +4107,10 @@
       <c r="J25" s="42"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A26" s="93">
+      <c r="A26" s="56">
         <v>24</v>
       </c>
-      <c r="B26" s="93" t="s">
+      <c r="B26" s="56" t="s">
         <v>75</v>
       </c>
       <c r="C26" s="30"/>
@@ -4129,10 +4129,10 @@
       <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A27" s="93">
+      <c r="A27" s="56">
         <v>25</v>
       </c>
-      <c r="B27" s="93" t="s">
+      <c r="B27" s="56" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="30"/>
@@ -4151,10 +4151,10 @@
       <c r="J27" s="42"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A28" s="93">
+      <c r="A28" s="56">
         <v>26</v>
       </c>
-      <c r="B28" s="93" t="s">
+      <c r="B28" s="56" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="30"/>
@@ -4173,10 +4173,10 @@
       <c r="J28" s="42"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A29" s="93">
+      <c r="A29" s="56">
         <v>27</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="56" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="30"/>
@@ -4195,10 +4195,10 @@
       <c r="J29" s="42"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A30" s="93">
+      <c r="A30" s="56">
         <v>28</v>
       </c>
-      <c r="B30" s="93" t="s">
+      <c r="B30" s="56" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="30"/>
@@ -4217,10 +4217,10 @@
       <c r="J30" s="42"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A31" s="93">
+      <c r="A31" s="56">
         <v>29</v>
       </c>
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="56" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="30"/>
@@ -4239,10 +4239,10 @@
       <c r="J31" s="42"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A32" s="93">
+      <c r="A32" s="56">
         <v>30</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="56" t="s">
         <v>79</v>
       </c>
       <c r="C32" s="30"/>
@@ -4261,10 +4261,10 @@
       <c r="J32" s="42"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A33" s="93">
+      <c r="A33" s="56">
         <v>31</v>
       </c>
-      <c r="B33" s="93" t="s">
+      <c r="B33" s="56" t="s">
         <v>80</v>
       </c>
       <c r="C33" s="30"/>
@@ -4283,10 +4283,10 @@
       <c r="J33" s="42"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A34" s="93">
+      <c r="A34" s="56">
         <v>32</v>
       </c>
-      <c r="B34" s="93" t="s">
+      <c r="B34" s="56" t="s">
         <v>81</v>
       </c>
       <c r="C34" s="30"/>
@@ -4305,10 +4305,10 @@
       <c r="J34" s="42"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A35" s="93">
+      <c r="A35" s="56">
         <v>33</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="56" t="s">
         <v>41</v>
       </c>
       <c r="C35" s="30"/>
@@ -4327,10 +4327,10 @@
       <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A36" s="93">
+      <c r="A36" s="56">
         <v>34</v>
       </c>
-      <c r="B36" s="93" t="s">
+      <c r="B36" s="56" t="s">
         <v>53</v>
       </c>
       <c r="C36" s="30"/>
@@ -4349,10 +4349,10 @@
       <c r="J36" s="42"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A37" s="93">
+      <c r="A37" s="56">
         <v>35</v>
       </c>
-      <c r="B37" s="93" t="s">
+      <c r="B37" s="56" t="s">
         <v>82</v>
       </c>
       <c r="C37" s="30"/>
@@ -4371,10 +4371,10 @@
       <c r="J37" s="42"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A38" s="93">
+      <c r="A38" s="56">
         <v>36</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="56" t="s">
         <v>83</v>
       </c>
       <c r="C38" s="30"/>
@@ -4393,10 +4393,10 @@
       <c r="J38" s="42"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A39" s="93">
+      <c r="A39" s="56">
         <v>37</v>
       </c>
-      <c r="B39" s="93" t="s">
+      <c r="B39" s="56" t="s">
         <v>84</v>
       </c>
       <c r="C39" s="30"/>
@@ -4415,10 +4415,10 @@
       <c r="J39" s="42"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="93">
+      <c r="A40" s="56">
         <v>38</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="56" t="s">
         <v>85</v>
       </c>
       <c r="C40" s="30"/>
@@ -4437,10 +4437,10 @@
       <c r="J40" s="42"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A41" s="93">
+      <c r="A41" s="56">
         <v>39</v>
       </c>
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="56" t="s">
         <v>86</v>
       </c>
       <c r="C41" s="30"/>
@@ -4459,10 +4459,10 @@
       <c r="J41" s="42"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A42" s="93">
+      <c r="A42" s="56">
         <v>40</v>
       </c>
-      <c r="B42" s="93" t="s">
+      <c r="B42" s="56" t="s">
         <v>87</v>
       </c>
       <c r="C42" s="30"/>
@@ -4481,10 +4481,10 @@
       <c r="J42" s="42"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A43" s="93">
+      <c r="A43" s="56">
         <v>41</v>
       </c>
-      <c r="B43" s="93" t="s">
+      <c r="B43" s="56" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="30"/>
@@ -4503,10 +4503,10 @@
       <c r="J43" s="42"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A44" s="93">
+      <c r="A44" s="56">
         <v>42</v>
       </c>
-      <c r="B44" s="93" t="s">
+      <c r="B44" s="56" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="30"/>
@@ -4525,10 +4525,10 @@
       <c r="J44" s="42"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A45" s="93">
+      <c r="A45" s="56">
         <v>43</v>
       </c>
-      <c r="B45" s="93" t="s">
+      <c r="B45" s="56" t="s">
         <v>88</v>
       </c>
       <c r="C45" s="30"/>
@@ -4547,10 +4547,10 @@
       <c r="J45" s="42"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A46" s="93">
+      <c r="A46" s="56">
         <v>44</v>
       </c>
-      <c r="B46" s="93" t="s">
+      <c r="B46" s="56" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="30"/>
@@ -4569,10 +4569,10 @@
       <c r="J46" s="42"/>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A47" s="93">
+      <c r="A47" s="56">
         <v>45</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="56" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="30"/>
@@ -4591,10 +4591,10 @@
       <c r="J47" s="42"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A48" s="93">
+      <c r="A48" s="56">
         <v>46</v>
       </c>
-      <c r="B48" s="93" t="s">
+      <c r="B48" s="56" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="30"/>
@@ -4613,10 +4613,10 @@
       <c r="J48" s="42"/>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A49" s="93">
+      <c r="A49" s="56">
         <v>47</v>
       </c>
-      <c r="B49" s="93" t="s">
+      <c r="B49" s="56" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="30"/>
@@ -4635,10 +4635,10 @@
       <c r="J49" s="42"/>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A50" s="93">
+      <c r="A50" s="56">
         <v>48</v>
       </c>
-      <c r="B50" s="93" t="s">
+      <c r="B50" s="56" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="30"/>
@@ -4657,10 +4657,10 @@
       <c r="J50" s="42"/>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A51" s="93">
+      <c r="A51" s="56">
         <v>49</v>
       </c>
-      <c r="B51" s="93" t="s">
+      <c r="B51" s="56" t="s">
         <v>43</v>
       </c>
       <c r="C51" s="30"/>
@@ -4679,10 +4679,10 @@
       <c r="J51" s="42"/>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A52" s="93">
+      <c r="A52" s="56">
         <v>50</v>
       </c>
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="56" t="s">
         <v>55</v>
       </c>
       <c r="C52" s="30"/>
@@ -4701,10 +4701,10 @@
       <c r="J52" s="42"/>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A53" s="93">
+      <c r="A53" s="56">
         <v>51</v>
       </c>
-      <c r="B53" s="93" t="s">
+      <c r="B53" s="56" t="s">
         <v>94</v>
       </c>
       <c r="C53" s="30"/>
@@ -4723,10 +4723,10 @@
       <c r="J53" s="42"/>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A54" s="93">
+      <c r="A54" s="56">
         <v>52</v>
       </c>
-      <c r="B54" s="93" t="s">
+      <c r="B54" s="56" t="s">
         <v>95</v>
       </c>
       <c r="C54" s="30"/>
@@ -4745,10 +4745,10 @@
       <c r="J54" s="42"/>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A55" s="93">
+      <c r="A55" s="56">
         <v>53</v>
       </c>
-      <c r="B55" s="93" t="s">
+      <c r="B55" s="56" t="s">
         <v>96</v>
       </c>
       <c r="C55" s="30"/>
@@ -4767,10 +4767,10 @@
       <c r="J55" s="42"/>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A56" s="93">
+      <c r="A56" s="56">
         <v>54</v>
       </c>
-      <c r="B56" s="93" t="s">
+      <c r="B56" s="56" t="s">
         <v>97</v>
       </c>
       <c r="C56" s="30"/>
@@ -4789,10 +4789,10 @@
       <c r="J56" s="42"/>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A57" s="93">
+      <c r="A57" s="56">
         <v>55</v>
       </c>
-      <c r="B57" s="93" t="s">
+      <c r="B57" s="56" t="s">
         <v>98</v>
       </c>
       <c r="C57" s="30"/>
@@ -4811,10 +4811,10 @@
       <c r="J57" s="42"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A58" s="93">
+      <c r="A58" s="56">
         <v>56</v>
       </c>
-      <c r="B58" s="93" t="s">
+      <c r="B58" s="56" t="s">
         <v>99</v>
       </c>
       <c r="C58" s="30"/>
@@ -4833,10 +4833,10 @@
       <c r="J58" s="42"/>
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="93">
+      <c r="A59" s="56">
         <v>57</v>
       </c>
-      <c r="B59" s="93" t="s">
+      <c r="B59" s="56" t="s">
         <v>44</v>
       </c>
       <c r="C59" s="30"/>
@@ -4855,10 +4855,10 @@
       <c r="J59" s="42"/>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="93">
+      <c r="A60" s="56">
         <v>58</v>
       </c>
-      <c r="B60" s="93" t="s">
+      <c r="B60" s="56" t="s">
         <v>56</v>
       </c>
       <c r="C60" s="30"/>
@@ -4877,10 +4877,10 @@
       <c r="J60" s="42"/>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="93">
+      <c r="A61" s="56">
         <v>59</v>
       </c>
-      <c r="B61" s="93" t="s">
+      <c r="B61" s="56" t="s">
         <v>100</v>
       </c>
       <c r="C61" s="30"/>
@@ -4899,10 +4899,10 @@
       <c r="J61" s="42"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="93">
+      <c r="A62" s="56">
         <v>60</v>
       </c>
-      <c r="B62" s="93" t="s">
+      <c r="B62" s="56" t="s">
         <v>101</v>
       </c>
       <c r="C62" s="30"/>
@@ -4921,10 +4921,10 @@
       <c r="J62" s="42"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A63" s="93">
+      <c r="A63" s="56">
         <v>61</v>
       </c>
-      <c r="B63" s="93" t="s">
+      <c r="B63" s="56" t="s">
         <v>102</v>
       </c>
       <c r="C63" s="30"/>
@@ -4943,10 +4943,10 @@
       <c r="J63" s="42"/>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A64" s="93">
+      <c r="A64" s="56">
         <v>62</v>
       </c>
-      <c r="B64" s="93" t="s">
+      <c r="B64" s="56" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="30"/>
@@ -4965,10 +4965,10 @@
       <c r="J64" s="42"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="93">
+      <c r="A65" s="56">
         <v>63</v>
       </c>
-      <c r="B65" s="93" t="s">
+      <c r="B65" s="56" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="30"/>
@@ -4987,10 +4987,10 @@
       <c r="J65" s="42"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="93">
+      <c r="A66" s="56">
         <v>64</v>
       </c>
-      <c r="B66" s="93" t="s">
+      <c r="B66" s="56" t="s">
         <v>105</v>
       </c>
       <c r="C66" s="30"/>
@@ -5009,10 +5009,10 @@
       <c r="J66" s="42"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="93">
+      <c r="A67" s="56">
         <v>65</v>
       </c>
-      <c r="B67" s="93" t="s">
+      <c r="B67" s="56" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="30"/>
@@ -5031,10 +5031,10 @@
       <c r="J67" s="42"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" s="93">
+      <c r="A68" s="56">
         <v>66</v>
       </c>
-      <c r="B68" s="93" t="s">
+      <c r="B68" s="56" t="s">
         <v>57</v>
       </c>
       <c r="C68" s="30"/>
@@ -5053,10 +5053,10 @@
       <c r="J68" s="42"/>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A69" s="93">
+      <c r="A69" s="56">
         <v>67</v>
       </c>
-      <c r="B69" s="93" t="s">
+      <c r="B69" s="56" t="s">
         <v>106</v>
       </c>
       <c r="C69" s="30"/>
@@ -5075,10 +5075,10 @@
       <c r="J69" s="42"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A70" s="93">
+      <c r="A70" s="56">
         <v>68</v>
       </c>
-      <c r="B70" s="93" t="s">
+      <c r="B70" s="56" t="s">
         <v>107</v>
       </c>
       <c r="C70" s="30"/>
@@ -5097,10 +5097,10 @@
       <c r="J70" s="42"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A71" s="93">
+      <c r="A71" s="56">
         <v>69</v>
       </c>
-      <c r="B71" s="93" t="s">
+      <c r="B71" s="56" t="s">
         <v>108</v>
       </c>
       <c r="C71" s="30"/>
@@ -5119,10 +5119,10 @@
       <c r="J71" s="42"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A72" s="93">
+      <c r="A72" s="56">
         <v>70</v>
       </c>
-      <c r="B72" s="93" t="s">
+      <c r="B72" s="56" t="s">
         <v>109</v>
       </c>
       <c r="C72" s="30"/>
@@ -5141,10 +5141,10 @@
       <c r="J72" s="42"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A73" s="93">
+      <c r="A73" s="56">
         <v>71</v>
       </c>
-      <c r="B73" s="93" t="s">
+      <c r="B73" s="56" t="s">
         <v>110</v>
       </c>
       <c r="C73" s="30"/>
@@ -5163,10 +5163,10 @@
       <c r="J73" s="42"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A74" s="93">
+      <c r="A74" s="56">
         <v>72</v>
       </c>
-      <c r="B74" s="93" t="s">
+      <c r="B74" s="56" t="s">
         <v>111</v>
       </c>
       <c r="C74" s="30"/>
@@ -5185,10 +5185,10 @@
       <c r="J74" s="42"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A75" s="93">
+      <c r="A75" s="56">
         <v>73</v>
       </c>
-      <c r="B75" s="93" t="s">
+      <c r="B75" s="56" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="30"/>
@@ -5207,10 +5207,10 @@
       <c r="J75" s="42"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A76" s="93">
+      <c r="A76" s="56">
         <v>74</v>
       </c>
-      <c r="B76" s="93" t="s">
+      <c r="B76" s="56" t="s">
         <v>112</v>
       </c>
       <c r="C76" s="30"/>
@@ -5229,10 +5229,10 @@
       <c r="J76" s="42"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A77" s="93">
+      <c r="A77" s="56">
         <v>75</v>
       </c>
-      <c r="B77" s="93" t="s">
+      <c r="B77" s="56" t="s">
         <v>113</v>
       </c>
       <c r="C77" s="30"/>
@@ -5251,10 +5251,10 @@
       <c r="J77" s="42"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A78" s="93">
+      <c r="A78" s="56">
         <v>76</v>
       </c>
-      <c r="B78" s="93" t="s">
+      <c r="B78" s="56" t="s">
         <v>114</v>
       </c>
       <c r="C78" s="30"/>
@@ -5273,10 +5273,10 @@
       <c r="J78" s="42"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A79" s="93">
+      <c r="A79" s="56">
         <v>77</v>
       </c>
-      <c r="B79" s="93" t="s">
+      <c r="B79" s="56" t="s">
         <v>115</v>
       </c>
       <c r="C79" s="30"/>
@@ -5295,10 +5295,10 @@
       <c r="J79" s="42"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A80" s="93">
+      <c r="A80" s="56">
         <v>78</v>
       </c>
-      <c r="B80" s="93" t="s">
+      <c r="B80" s="56" t="s">
         <v>116</v>
       </c>
       <c r="C80" s="30"/>
@@ -5317,10 +5317,10 @@
       <c r="J80" s="42"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A81" s="93">
+      <c r="A81" s="56">
         <v>79</v>
       </c>
-      <c r="B81" s="93" t="s">
+      <c r="B81" s="56" t="s">
         <v>117</v>
       </c>
       <c r="C81" s="30"/>
@@ -5339,10 +5339,10 @@
       <c r="J81" s="42"/>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A82" s="93">
+      <c r="A82" s="56">
         <v>80</v>
       </c>
-      <c r="B82" s="93" t="s">
+      <c r="B82" s="56" t="s">
         <v>118</v>
       </c>
       <c r="C82" s="30"/>
@@ -5361,10 +5361,10 @@
       <c r="J82" s="42"/>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A83" s="93">
+      <c r="A83" s="56">
         <v>81</v>
       </c>
-      <c r="B83" s="93" t="s">
+      <c r="B83" s="56" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="30"/>
@@ -5383,10 +5383,10 @@
       <c r="J83" s="42"/>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A84" s="93">
+      <c r="A84" s="56">
         <v>82</v>
       </c>
-      <c r="B84" s="93" t="s">
+      <c r="B84" s="56" t="s">
         <v>119</v>
       </c>
       <c r="C84" s="30"/>
@@ -5405,10 +5405,10 @@
       <c r="J84" s="42"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A85" s="93">
+      <c r="A85" s="56">
         <v>83</v>
       </c>
-      <c r="B85" s="93" t="s">
+      <c r="B85" s="56" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="30"/>
@@ -5427,10 +5427,10 @@
       <c r="J85" s="42"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A86" s="93">
+      <c r="A86" s="56">
         <v>84</v>
       </c>
-      <c r="B86" s="93" t="s">
+      <c r="B86" s="56" t="s">
         <v>121</v>
       </c>
       <c r="C86" s="30"/>
@@ -5449,10 +5449,10 @@
       <c r="J86" s="42"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A87" s="93">
+      <c r="A87" s="56">
         <v>85</v>
       </c>
-      <c r="B87" s="93" t="s">
+      <c r="B87" s="56" t="s">
         <v>122</v>
       </c>
       <c r="C87" s="30"/>
@@ -5471,10 +5471,10 @@
       <c r="J87" s="42"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A88" s="93">
+      <c r="A88" s="56">
         <v>86</v>
       </c>
-      <c r="B88" s="93" t="s">
+      <c r="B88" s="56" t="s">
         <v>123</v>
       </c>
       <c r="C88" s="30"/>
@@ -5493,10 +5493,10 @@
       <c r="J88" s="42"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A89" s="93">
+      <c r="A89" s="56">
         <v>87</v>
       </c>
-      <c r="B89" s="93" t="s">
+      <c r="B89" s="56" t="s">
         <v>124</v>
       </c>
       <c r="C89" s="30"/>
@@ -5515,10 +5515,10 @@
       <c r="J89" s="42"/>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A90" s="93">
+      <c r="A90" s="56">
         <v>88</v>
       </c>
-      <c r="B90" s="93" t="s">
+      <c r="B90" s="56" t="s">
         <v>125</v>
       </c>
       <c r="C90" s="30"/>
@@ -5537,10 +5537,10 @@
       <c r="J90" s="42"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A91" s="93">
+      <c r="A91" s="56">
         <v>89</v>
       </c>
-      <c r="B91" s="93" t="s">
+      <c r="B91" s="56" t="s">
         <v>48</v>
       </c>
       <c r="C91" s="30"/>
@@ -5559,10 +5559,10 @@
       <c r="J91" s="42"/>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A92" s="93">
+      <c r="A92" s="56">
         <v>90</v>
       </c>
-      <c r="B92" s="93" t="s">
+      <c r="B92" s="56" t="s">
         <v>126</v>
       </c>
       <c r="C92" s="30"/>
@@ -5581,10 +5581,10 @@
       <c r="J92" s="42"/>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A93" s="93">
+      <c r="A93" s="56">
         <v>91</v>
       </c>
-      <c r="B93" s="93" t="s">
+      <c r="B93" s="56" t="s">
         <v>127</v>
       </c>
       <c r="C93" s="30"/>
@@ -5603,10 +5603,10 @@
       <c r="J93" s="42"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A94" s="93">
+      <c r="A94" s="56">
         <v>92</v>
       </c>
-      <c r="B94" s="93" t="s">
+      <c r="B94" s="56" t="s">
         <v>128</v>
       </c>
       <c r="C94" s="30"/>
@@ -5625,10 +5625,10 @@
       <c r="J94" s="42"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A95" s="93">
+      <c r="A95" s="56">
         <v>93</v>
       </c>
-      <c r="B95" s="93" t="s">
+      <c r="B95" s="56" t="s">
         <v>129</v>
       </c>
       <c r="C95" s="30"/>
@@ -5647,10 +5647,10 @@
       <c r="J95" s="42"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A96" s="93">
+      <c r="A96" s="56">
         <v>94</v>
       </c>
-      <c r="B96" s="93" t="s">
+      <c r="B96" s="56" t="s">
         <v>130</v>
       </c>
       <c r="C96" s="30"/>
@@ -5669,10 +5669,10 @@
       <c r="J96" s="42"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A97" s="93">
+      <c r="A97" s="56">
         <v>95</v>
       </c>
-      <c r="B97" s="93" t="s">
+      <c r="B97" s="56" t="s">
         <v>131</v>
       </c>
       <c r="C97" s="30"/>
@@ -5691,10 +5691,10 @@
       <c r="J97" s="42"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A98" s="95">
+      <c r="A98" s="58">
         <v>96</v>
       </c>
-      <c r="B98" s="95" t="s">
+      <c r="B98" s="58" t="s">
         <v>132</v>
       </c>
       <c r="C98" s="30"/>
@@ -5865,7 +5865,7 @@
       <c r="J111" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Do+ZvaSNIKYpxOppd2j2DHLAMrtLqUdnylRzuZEahvA8514tVL9zsACPj/gXyAMeqTfv8cOOjBCYEBnK8GjYuQ==" saltValue="cO5c+EFbobPewavczjI6rg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
   <protectedRanges>
     <protectedRange sqref="A2:J98" name="FilterTbl"/>
   </protectedRanges>
@@ -5875,12 +5875,12 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="C3:C98">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text=" ">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text=" ">
       <formula>NOT(ISERROR(SEARCH(" ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:D98 F3:H98 J3:J98">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>COUNTIF(C3,"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5908,7 +5908,7 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -5933,7 +5933,7 @@
         <v>26</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" thickBot="1">
@@ -5969,10 +5969,10 @@
         <v>30</v>
       </c>
       <c r="G3" s="36" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>191</v>
@@ -5980,23 +5980,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B4" s="38">
         <v>10</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="37">
         <v>50</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>192</v>
@@ -6005,10 +6005,10 @@
     <row r="5" spans="1:14" ht="18.75">
       <c r="E5" s="4"/>
       <c r="G5" s="36" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>193</v>
@@ -6020,9 +6020,8 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
-      <c r="G6" s="34" t="s">
-        <v>201</v>
-      </c>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
@@ -6031,9 +6030,8 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="34" t="s">
-        <v>205</v>
-      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
@@ -6043,35 +6041,40 @@
         <v>6</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="G9" s="34" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="16.5" thickBot="1">
       <c r="A10" s="24" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:14">
+      <c r="G12" s="34" t="s">
+        <v>198</v>
+      </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6083,9 +6086,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.5"/>
   <cols>
@@ -6101,12 +6102,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="46.5">
       <c r="A1" s="52" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="48" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -6114,12 +6115,12 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="46" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="47" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -6127,7 +6128,7 @@
         <v>164</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -6135,7 +6136,7 @@
         <v>35</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -6143,7 +6144,7 @@
         <v>165</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6151,7 +6152,7 @@
         <v>166</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -6159,48 +6160,48 @@
         <v>167</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="48" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B11" s="48"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="51" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="47" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="48" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="48" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="48" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="48" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="48" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -6208,17 +6209,17 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="46" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="48" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="47" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -8867,7 +8868,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0Z4tMIdR1XInzI6T5nccLpUmkW37xP0QlaBElzIp60NUh/HOpcG+IrEhUteZFqqVO4eB/tyR66xzq7LjSCYLuA==" saltValue="sYLXdzm2AHtEdpMRafbgog==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
